--- a/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
+++ b/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGETS-UFG\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721ABAE-B86E-413D-9265-8C4F8C7CF030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77C9F5-9FA1-4B68-A225-3CF53E6A6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
+    <workbookView xWindow="8520" yWindow="1020" windowWidth="20280" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="218">
   <si>
     <t>Base</t>
   </si>
@@ -57,6 +55,639 @@
   </si>
   <si>
     <t>Isencao_IPTU</t>
+  </si>
+  <si>
+    <t>RH_adm_dir</t>
+  </si>
+  <si>
+    <t>RH_adm_indir</t>
+  </si>
+  <si>
+    <t>Total da composição do quadro de pessoal da administração direta</t>
+  </si>
+  <si>
+    <t>Total da composição do quadro de pessoal da administração indireta</t>
+  </si>
+  <si>
+    <t>Mecanismos de incentivo à implantação de empreendimento - existência</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Redução do IPTU</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Isenção do IPTU</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Redução do ISSQN</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Isenção do ISSQN</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Isenção de taxas</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Cessão de terrenos</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Doação de terrenos</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Outros</t>
+  </si>
+  <si>
+    <t>Mecanismos de restrição à implantação de empreendimento - existência</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento beneficiado: Industrial</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento beneficiado: Comercial e serviços</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento beneficiado: Turismo, esporte e lazer</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento beneficiado: Agropecuário</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento beneficiado: Outros</t>
+  </si>
+  <si>
+    <t>Empreendimento beneficiado em 2018: Industrial</t>
+  </si>
+  <si>
+    <t>Empreendimento beneficiado em 2018: Comercial e serviços</t>
+  </si>
+  <si>
+    <t>Empreendimento beneficiado em 2018: Turismo, esporte e lazer</t>
+  </si>
+  <si>
+    <t>Empreendimento beneficiado em 2018: Agropecuário</t>
+  </si>
+  <si>
+    <t>Empreendimento beneficiado em 2018: Outros</t>
+  </si>
+  <si>
+    <t>Empreendimento beneficiado em 2018: Nenhum</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Legislação</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Tributação</t>
+  </si>
+  <si>
+    <t>Mecanismos utilizados: Outro</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento em que é aplicado o mecanismo de restrição: Indústria</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento em que é aplicado o mecanismo de restrição: Indústria extrativa</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento em que é aplicado o mecanismo de restrição: Comercial e serviços</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento em que é aplicado o mecanismo de restrição: Turismo, esporte e lazer</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento em que é aplicado o mecanismo de restrição: Empreendimentos com impacto ambiental</t>
+  </si>
+  <si>
+    <t>Tipo de empreendimento em que é aplicado o mecanismo de restrição: Outros</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Indústria</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Indústria extrativa</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Comercial e serviços</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Turismo, esporte e lazer</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Empreendimentos com impacto ambiental</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Outros</t>
+  </si>
+  <si>
+    <t>Empreendimento com restrição em 2018: Nenhum</t>
+  </si>
+  <si>
+    <t>Possui computadores em funcionamento</t>
+  </si>
+  <si>
+    <t>Estão ligados a rede</t>
+  </si>
+  <si>
+    <t>Tipo de conexão com a internet</t>
+  </si>
+  <si>
+    <t>Estrutura organizacional para a área de Tecnologia da Informação e Comunicação (TIC) - existência</t>
+  </si>
+  <si>
+    <t>Pessoas que trabalham na área de Tecnologia da Informação: Funcionários efetivos da própria prefeitura</t>
+  </si>
+  <si>
+    <t>Pessoas que trabalham na área de Tecnologia da Informação: Servidores cedidos de outro órgão público</t>
+  </si>
+  <si>
+    <t>Pessoas que trabalham na área de Tecnologia da Informação: Estagiários</t>
+  </si>
+  <si>
+    <t>Pessoas que trabalham na área de Tecnologia da Informação: Cargo(s) Comissionado(s) de livre nomeação</t>
+  </si>
+  <si>
+    <t>Pessoas que trabalham na área de Tecnologia da Informação: Terceirizados</t>
+  </si>
+  <si>
+    <t>Pessoas que trabalham na área de Tecnologia da Informação: Consultores</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Serviços informativos</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Acesso a documentos</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Informações gerais sobre licitações</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Ouvidoria e serviços de atendimento ao cidadão</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Fazer download de documentos ou formulários</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Consulta a processos/acompanhamento de protocolos</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Consulta prévia</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Diário oficial, legislação municipal e finanças públicas</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Concurso público</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Cadastramento de fornecedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços disponibilizados na página da internet: Emissão certidão negativa de débito </t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Emissão alvará</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Emissão nota fiscal eletrônica</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Matrícula escolar na rede pública online</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Agendamento de consulta na rede pública de saúde</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Emitir guia de pagamento de tributos</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Emissão de documentos como licenças, certidões, permissões e outros documentos</t>
+  </si>
+  <si>
+    <t>Serviços disponibilizados na página da internet: Pesquisa de satisfação relacionada aos serviços prestados pela prefeitura</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Envio de sms para o cidadão</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Recebimento de sms do cidadão</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Aplicativos criados pela prefeitura</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Aplicativos criados por outros organismos ou cidadãos a partir de informações ou dados disponibilizados pela prefeitura</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Website adaptado para dispositivos móveis ou desenhado em versão mobile</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Emitir boletos de tributos ou outras guias de pagamento</t>
+  </si>
+  <si>
+    <t>Disponibilizou, nos últimos 12 meses, para o cidadão por meio de celular ou smartphones: Não disponibilizou</t>
+  </si>
+  <si>
+    <t>Bilhete eletrônico transporte público</t>
+  </si>
+  <si>
+    <t>Ônibus municipal com GPS</t>
+  </si>
+  <si>
+    <t>Centro de controle e operações</t>
+  </si>
+  <si>
+    <t>Sistema de iluminação inteligente</t>
+  </si>
+  <si>
+    <t>Semáforos inteligentes</t>
+  </si>
+  <si>
+    <t>Sensores para monitoramento de área de risco</t>
+  </si>
+  <si>
+    <t>Isencao_ISSQN</t>
+  </si>
+  <si>
+    <t>Reducao_ISSQN</t>
+  </si>
+  <si>
+    <t>Isencao_Tx</t>
+  </si>
+  <si>
+    <t>Cessao_terrenos</t>
+  </si>
+  <si>
+    <t>Doacao_terrenos</t>
+  </si>
+  <si>
+    <t>Outros_mecanismos</t>
+  </si>
+  <si>
+    <t>Industria_beneficiada</t>
+  </si>
+  <si>
+    <t>Comercio_servicos_beneficiados</t>
+  </si>
+  <si>
+    <t>Turismo_esporte_lazer_beneficiados</t>
+  </si>
+  <si>
+    <t>Agropecuario_beneficiado</t>
+  </si>
+  <si>
+    <t>Outros_beneficiados</t>
+  </si>
+  <si>
+    <t>Industria_beneficiada_2018</t>
+  </si>
+  <si>
+    <t>Comercio_servicos_beneficiados_2018</t>
+  </si>
+  <si>
+    <t>Turismo_esporte_lazer_beneficiados_2018</t>
+  </si>
+  <si>
+    <t>Outros_beneficiados_2018</t>
+  </si>
+  <si>
+    <t>Agropecuario_beneficiado_2018</t>
+  </si>
+  <si>
+    <t>Nenhum_beneficiado_2018</t>
+  </si>
+  <si>
+    <t>Mecanismos_restricao</t>
+  </si>
+  <si>
+    <t>Legislacao</t>
+  </si>
+  <si>
+    <t>Tributacao</t>
+  </si>
+  <si>
+    <t>Outros_restricao</t>
+  </si>
+  <si>
+    <t>Industria_restricao</t>
+  </si>
+  <si>
+    <t>Industria_extrativa_restricao</t>
+  </si>
+  <si>
+    <t>Comercio_servicos_restricao</t>
+  </si>
+  <si>
+    <t>Turismo_esporte_lazer_restricao</t>
+  </si>
+  <si>
+    <t>Ambiental_restricao</t>
+  </si>
+  <si>
+    <t>Outras_empresas_restricao</t>
+  </si>
+  <si>
+    <t>Industria_restricao_2018</t>
+  </si>
+  <si>
+    <t>Industria_extrativa_restricao_2018</t>
+  </si>
+  <si>
+    <t>Comercial_servicos_restricao_2018</t>
+  </si>
+  <si>
+    <t>Turismo_esporte_lazer_restricao_2018</t>
+  </si>
+  <si>
+    <t>Ambiental_restricao_2018</t>
+  </si>
+  <si>
+    <t>Outros_restricao_2018</t>
+  </si>
+  <si>
+    <t>Nenhum_restricao_2018</t>
+  </si>
+  <si>
+    <t>Possui_computador</t>
+  </si>
+  <si>
+    <t>Computador_ligado_rede</t>
+  </si>
+  <si>
+    <t>Tipo_conexao_internet</t>
+  </si>
+  <si>
+    <t>Estrutura_organizacional_TI</t>
+  </si>
+  <si>
+    <t>Funcionarios_efetivos_TI</t>
+  </si>
+  <si>
+    <t>Servidores_cedidos_TI</t>
+  </si>
+  <si>
+    <t>Estagiarios_TI</t>
+  </si>
+  <si>
+    <t>Cargo_comissionado_TI</t>
+  </si>
+  <si>
+    <t>Tercerizados_TI</t>
+  </si>
+  <si>
+    <t>Consultores_TI</t>
+  </si>
+  <si>
+    <t>Servicos_informativos</t>
+  </si>
+  <si>
+    <t>Acessos_docs_</t>
+  </si>
+  <si>
+    <t>Infos_gerais_licitacoes</t>
+  </si>
+  <si>
+    <t>Ouvidoria</t>
+  </si>
+  <si>
+    <t>Download_docs</t>
+  </si>
+  <si>
+    <t>Consulta_processos</t>
+  </si>
+  <si>
+    <t>Consulta_previa</t>
+  </si>
+  <si>
+    <t>Diario_oficial</t>
+  </si>
+  <si>
+    <t>Concurso_publico</t>
+  </si>
+  <si>
+    <t>Cadastro_fornecedores</t>
+  </si>
+  <si>
+    <t>Emissao_certidao_negativa_debito</t>
+  </si>
+  <si>
+    <t>Emissao_alvara</t>
+  </si>
+  <si>
+    <t>Emissao_NF</t>
+  </si>
+  <si>
+    <t>Matricula_escolar</t>
+  </si>
+  <si>
+    <t>Agendamento_consulta_saude</t>
+  </si>
+  <si>
+    <t>Emissao_guia_pagamento_tributos</t>
+  </si>
+  <si>
+    <t>Emissao_docs</t>
+  </si>
+  <si>
+    <t>Pesquisa_satisfacao</t>
+  </si>
+  <si>
+    <t>Envio_SMS</t>
+  </si>
+  <si>
+    <t>Recibo_SMS</t>
+  </si>
+  <si>
+    <t>APPs_prefeitura</t>
+  </si>
+  <si>
+    <t>APPs_outros_orgaos</t>
+  </si>
+  <si>
+    <t>Website_mobile</t>
+  </si>
+  <si>
+    <t>Emissao_boletos_mobile</t>
+  </si>
+  <si>
+    <t>Nao_disponibilizou</t>
+  </si>
+  <si>
+    <t>Bilhete_eletronico_transporte</t>
+  </si>
+  <si>
+    <t>Onibus_GPS</t>
+  </si>
+  <si>
+    <t>Centro_controle_operacoes</t>
+  </si>
+  <si>
+    <t>Iluminacao_inteligente</t>
+  </si>
+  <si>
+    <t>Semaforos_inteligentes</t>
+  </si>
+  <si>
+    <t>Sensores_monitoria_area_risco</t>
+  </si>
+  <si>
+    <t>IDEB</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Unidade Federativa</t>
+  </si>
+  <si>
+    <t>Cod_municipio</t>
+  </si>
+  <si>
+    <t>Nome_municipio</t>
+  </si>
+  <si>
+    <t>Rede_ensino</t>
+  </si>
+  <si>
+    <t>IDEB_2021</t>
+  </si>
+  <si>
+    <t>Código IBGE do município</t>
+  </si>
+  <si>
+    <t>Nome do município</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rede Escolar (Dependência Administrativa)	</t>
+  </si>
+  <si>
+    <t>IDEB (Nota SAEB - Nota Média Padronizada x Indicador de Rendimento</t>
+  </si>
+  <si>
+    <t>ANATEL</t>
+  </si>
+  <si>
+    <t>Codigo_IBGE</t>
+  </si>
+  <si>
+    <t>Servico</t>
+  </si>
+  <si>
+    <t>Principais serviços de telecomunicações</t>
+  </si>
+  <si>
+    <t>Banda Larga Fixa</t>
+  </si>
+  <si>
+    <t>Telefonia Fixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefonia Móvel </t>
+  </si>
+  <si>
+    <t>TV por Assinatura</t>
+  </si>
+  <si>
+    <t>Serviço de banda larga fixa</t>
+  </si>
+  <si>
+    <t>Serviço de telefonia fixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de telefonia móvel </t>
+  </si>
+  <si>
+    <t>Serviço de TV por assinatura</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>CDMUN</t>
+  </si>
+  <si>
+    <t>NMMUN</t>
+  </si>
+  <si>
+    <t>SGUF</t>
+  </si>
+  <si>
+    <t>ISH</t>
+  </si>
+  <si>
+    <t>Índice de segurança hídrica</t>
+  </si>
+  <si>
+    <t>TPMAN</t>
+  </si>
+  <si>
+    <t>CSMAN</t>
+  </si>
+  <si>
+    <t>TPSIS</t>
+  </si>
+  <si>
+    <t>TPOPE</t>
+  </si>
+  <si>
+    <t>SHAPE_Length</t>
+  </si>
+  <si>
+    <t>SHAPE_Area</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
+    <t>ETE_CD</t>
+  </si>
+  <si>
+    <t>ETE_NM</t>
+  </si>
+  <si>
+    <t>ETE_ACH_CD</t>
+  </si>
+  <si>
+    <t>ETE_AA_OPERACAO</t>
+  </si>
+  <si>
+    <t>ETE_DS_STATUS</t>
+  </si>
+  <si>
+    <t>ETE_DS_INTEGRADO</t>
+  </si>
+  <si>
+    <t>ETE_DS_TOTAL</t>
+  </si>
+  <si>
+    <t>ETE_DS_TIPOLOGIA</t>
+  </si>
+  <si>
+    <t>ETE_NM_CORPORECEPTOR</t>
+  </si>
+  <si>
+    <t>ETE_QT_POPPROJ</t>
+  </si>
+  <si>
+    <t>ETE_PC_REMOCAODBO</t>
+  </si>
+  <si>
+    <t>ETE_PC_REMOCAOP</t>
+  </si>
+  <si>
+    <t>ETE_PC_REMOCAON</t>
+  </si>
+  <si>
+    <t>ETE_MUN_CD_IBGE</t>
+  </si>
+  <si>
+    <t>ETE_NM_REGIAOMETROP</t>
+  </si>
+  <si>
+    <t>ETE_DS_TIPOLOGRESUMIDA</t>
   </si>
 </sst>
 </file>
@@ -72,15 +703,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -88,12 +725,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,110 +1092,1305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C4129-7090-4E4E-9825-1BD4443875DF}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="190.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
+++ b/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGETS-UFG\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77C9F5-9FA1-4B68-A225-3CF53E6A6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E49B1-4D59-4081-BE5C-BF48161B9C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="1020" windowWidth="20280" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="234">
   <si>
     <t>Base</t>
   </si>
@@ -688,6 +688,54 @@
   </si>
   <si>
     <t>ETE_DS_TIPOLOGRESUMIDA</t>
+  </si>
+  <si>
+    <t>IPEA</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>período</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>SEBRAE</t>
+  </si>
+  <si>
+    <t>cod_municipio</t>
+  </si>
+  <si>
+    <t>cod_municipiodv</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Ano de ocorrência do fato</t>
+  </si>
+  <si>
+    <t>Resultado númerico do total de ocorrências</t>
+  </si>
+  <si>
+    <t>Código IBGE com 7 digítos do município</t>
+  </si>
+  <si>
+    <t>Código de Endereçamento Postal</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C4129-7090-4E4E-9825-1BD4443875DF}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,6 +2437,117 @@
       </c>
       <c r="C121" s="2"/>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
+++ b/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGETS-UFG\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E49B1-4D59-4081-BE5C-BF48161B9C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3035B72-9DEC-4AB2-B615-3DDAE45A03E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1020" windowWidth="20280" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
+    <workbookView xWindow="3705" yWindow="1020" windowWidth="25095" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="205">
   <si>
     <t>Base</t>
   </si>
@@ -543,21 +543,12 @@
     <t>Nome_municipio</t>
   </si>
   <si>
-    <t>Rede_ensino</t>
-  </si>
-  <si>
-    <t>IDEB_2021</t>
-  </si>
-  <si>
     <t>Código IBGE do município</t>
   </si>
   <si>
     <t>Nome do município</t>
   </si>
   <si>
-    <t xml:space="preserve">Rede Escolar (Dependência Administrativa)	</t>
-  </si>
-  <si>
     <t>IDEB (Nota SAEB - Nota Média Padronizada x Indicador de Rendimento</t>
   </si>
   <si>
@@ -615,81 +606,6 @@
     <t>Índice de segurança hídrica</t>
   </si>
   <si>
-    <t>TPMAN</t>
-  </si>
-  <si>
-    <t>CSMAN</t>
-  </si>
-  <si>
-    <t>TPSIS</t>
-  </si>
-  <si>
-    <t>TPOPE</t>
-  </si>
-  <si>
-    <t>SHAPE_Length</t>
-  </si>
-  <si>
-    <t>SHAPE_Area</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
-    <t>ETE_CD</t>
-  </si>
-  <si>
-    <t>ETE_NM</t>
-  </si>
-  <si>
-    <t>ETE_ACH_CD</t>
-  </si>
-  <si>
-    <t>ETE_AA_OPERACAO</t>
-  </si>
-  <si>
-    <t>ETE_DS_STATUS</t>
-  </si>
-  <si>
-    <t>ETE_DS_INTEGRADO</t>
-  </si>
-  <si>
-    <t>ETE_DS_TOTAL</t>
-  </si>
-  <si>
-    <t>ETE_DS_TIPOLOGIA</t>
-  </si>
-  <si>
-    <t>ETE_NM_CORPORECEPTOR</t>
-  </si>
-  <si>
-    <t>ETE_QT_POPPROJ</t>
-  </si>
-  <si>
-    <t>ETE_PC_REMOCAODBO</t>
-  </si>
-  <si>
-    <t>ETE_PC_REMOCAOP</t>
-  </si>
-  <si>
-    <t>ETE_PC_REMOCAON</t>
-  </si>
-  <si>
-    <t>ETE_MUN_CD_IBGE</t>
-  </si>
-  <si>
-    <t>ETE_NM_REGIAOMETROP</t>
-  </si>
-  <si>
-    <t>ETE_DS_TIPOLOGRESUMIDA</t>
-  </si>
-  <si>
     <t>IPEA</t>
   </si>
   <si>
@@ -699,9 +615,6 @@
     <t>nome</t>
   </si>
   <si>
-    <t>período</t>
-  </si>
-  <si>
     <t>valor</t>
   </si>
   <si>
@@ -717,35 +630,41 @@
     <t>municipio</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Ano de ocorrência do fato</t>
-  </si>
-  <si>
     <t>Resultado númerico do total de ocorrências</t>
   </si>
   <si>
     <t>Código IBGE com 7 digítos do município</t>
   </si>
   <si>
-    <t>Código de Endereçamento Postal</t>
+    <t>estrutura_sebrae</t>
+  </si>
+  <si>
+    <t>sala_empreendedor</t>
+  </si>
+  <si>
+    <t>IDEB_2020</t>
+  </si>
+  <si>
+    <t>IDEB_2021_fund</t>
+  </si>
+  <si>
+    <t>IDEB_2021_medio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1140,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C4129-7090-4E4E-9825-1BD4443875DF}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,7 +1985,7 @@
         <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,7 +1996,7 @@
         <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,10 +2004,10 @@
         <v>164</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,18 +2015,18 @@
         <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>171</v>
@@ -2115,169 +2034,183 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>192</v>
+      <c r="C96" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>200</v>
@@ -2286,269 +2219,15 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
+++ b/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGETS-UFG\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3035B72-9DEC-4AB2-B615-3DDAE45A03E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4C483-FFC6-417B-A44F-137E1E290E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1020" windowWidth="25095" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
+    <workbookView xWindow="4695" yWindow="1635" windowWidth="25095" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C4129-7090-4E4E-9825-1BD4443875DF}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
+++ b/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGETS-UFG\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4C483-FFC6-417B-A44F-137E1E290E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD8E10-D206-49C8-8389-CB781DE2E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1635" windowWidth="25095" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="240">
   <si>
     <t>Base</t>
   </si>
@@ -649,6 +649,111 @@
   </si>
   <si>
     <t>IDEB_2021_medio</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Censo de Educação Superior</t>
+  </si>
+  <si>
+    <t>CO_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>IES_privadas</t>
+  </si>
+  <si>
+    <t>IES_publicas</t>
+  </si>
+  <si>
+    <t>qtd_cursos_agro</t>
+  </si>
+  <si>
+    <t>qtd_cursos_artes</t>
+  </si>
+  <si>
+    <t>qtd_cursos_cn</t>
+  </si>
+  <si>
+    <t>qtd_cursos_cs</t>
+  </si>
+  <si>
+    <t>qtd_cursos_tic</t>
+  </si>
+  <si>
+    <t>qtd_cursos_educ</t>
+  </si>
+  <si>
+    <t>qtd_cursos_engenharias</t>
+  </si>
+  <si>
+    <t>qtd_cursos_negocios_direito</t>
+  </si>
+  <si>
+    <t>qtd_cursos_programas_basicos</t>
+  </si>
+  <si>
+    <t>qtd_cursos_saude</t>
+  </si>
+  <si>
+    <t>qtd_cursos_servicos</t>
+  </si>
+  <si>
+    <t>TSE</t>
+  </si>
+  <si>
+    <t>SG_UF</t>
+  </si>
+  <si>
+    <t>CD_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>NM_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>bolsonaro</t>
+  </si>
+  <si>
+    <t>lula</t>
+  </si>
+  <si>
+    <t>branco</t>
+  </si>
+  <si>
+    <t>nulo</t>
+  </si>
+  <si>
+    <t>bolsonaro_perc</t>
+  </si>
+  <si>
+    <t>lula_perc</t>
+  </si>
+  <si>
+    <t>codigo_ibge</t>
+  </si>
+  <si>
+    <t>cod_uf</t>
+  </si>
+  <si>
+    <t>codigo_ibge_dv</t>
+  </si>
+  <si>
+    <t>Receita Federal</t>
+  </si>
+  <si>
+    <t>cod_municipio_ibge</t>
+  </si>
+  <si>
+    <t>total_empresas</t>
+  </si>
+  <si>
+    <t>total_empresas_abertas</t>
+  </si>
+  <si>
+    <t>media_tempo_abertura</t>
+  </si>
+  <si>
+    <t>media_dias_abertura</t>
   </si>
 </sst>
 </file>
@@ -679,12 +784,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -733,18 +838,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,1172 +1176,1454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C4129-7090-4E4E-9825-1BD4443875DF}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="190.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
+++ b/05_bases_FP/01_script/01_dados_tratados/dicionário_dado_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGETS-UFG\Documents\GitHub\lapei\05_bases_FP\01_script\01_dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539E223-C019-4E21-9086-60A59F4D208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C44C9-A727-4AA7-928D-F4CFE0C83A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
+    <workbookView xWindow="345" yWindow="1035" windowWidth="25095" windowHeight="14100" xr2:uid="{866117BD-23B5-4992-8883-B2D1015A1BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666694F3-32DD-44DC-84D8-4A8A76823AC6}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="B139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D170" sqref="B170:D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
